--- a/biology/Botanique/Knipperlé/Knipperlé.xlsx
+++ b/biology/Botanique/Knipperlé/Knipperlé.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Knipperl%C3%A9</t>
+          <t>Knipperlé</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le  knipperlé est un cépage français de raisins blancs.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Knipperl%C3%A9</t>
+          <t>Knipperlé</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Origine et répartition géographique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le knipperlé est un cépage de cuve alsacien. Il fut largement multiplié à la  fin du XVIIIe siècle grâce au travail du pépiniériste Johann Michael Ortlieb, qui l'importait en 1756 à Riquewihr.
 Le knipperlé a été classé recommandé en Alsace mais il ne fait pas partie de l'encépagement des vins AOC.
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Knipperl%C3%A9</t>
+          <t>Knipperlé</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Aptitudes culturales</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La maturité est de deuxième époque: 10 jours après le chasselas. 
 </t>
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Knipperl%C3%A9</t>
+          <t>Knipperlé</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,7 +592,9 @@
           <t>Potentiel technologique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les grappes et les baies du knipperlé sont petites à moyennes. La grappe est cylindrique et parfois ailée. Le cépage est de bonne vigueur mais la production est irrégulière. Il est très sensible à la pourriture grise et à la cochylis. Le knipperlé est en voie de disparition.
 </t>
@@ -589,7 +607,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Knipperl%C3%A9</t>
+          <t>Knipperlé</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -607,7 +625,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le knipperlé est connu sous les noms de beli kleschiz, breisgauer riesling, colmer, drobni kleshiz, Elsässer, eltinger, faktor, früher Ortlieber, gelber Ortlieber, grüner Ortlieber, kipperlé, kleiner Gelber, kleiner Methüsser, kleiner Räuschling, klescec, knackerle, kniperlé, libiza, mali javor, mielleux petit, Ortlieber, Ortliebi, Ortliebstraube, Öttlinger, petit mielleux, plant de Riquewihr, Reichenweiherer, Rungauer, Sibiza, Türkheimer et  Weißer Ortlieber.
 </t>
